--- a/Projekt1/times.xlsx
+++ b/Projekt1/times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mikolaj\Documents\Projekty\Inteligencja Obliczeniowa\Projekt1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pikus\Documents\Studia\IO\Projekt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CB1A8-E4CC-402E-8CDB-0CF8FA92E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8061B-EB97-4A62-B5AC-63FB799FD562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31830" yWindow="1935" windowWidth="20715" windowHeight="11235" activeTab="2" xr2:uid="{E030BAC1-0847-475F-BADB-CF88976F2046}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E030BAC1-0847-475F-BADB-CF88976F2046}"/>
   </bookViews>
   <sheets>
     <sheet name="Small board" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,11 +116,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -282,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,17 +435,17 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="A1:M5"/>
+      <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>43.743622922897273</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -653,17 +653,21 @@
       <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -686,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -717,7 +721,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -744,7 +748,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -771,7 +775,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -796,7 +800,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -817,7 +821,7 @@
         <v>85.184166312217684</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -839,7 +843,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -860,7 +864,7 @@
         <v>54.223787367343853</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -882,21 +886,21 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>876.66325139999299</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
   </sheetData>
@@ -909,20 +913,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -942,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -967,7 +970,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +994,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>290.61736087799039</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
